--- a/Planilhas Tratadas/PNAD NACIONAL.xlsx
+++ b/Planilhas Tratadas/PNAD NACIONAL.xlsx
@@ -626,37 +626,37 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>95664</t>
+          <t>95327</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>88011</t>
+          <t>87713</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>7653</t>
+          <t>7613</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>57937</t>
+          <t>57704</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>7013</t>
+          <t>6974</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>6685</t>
+          <t>6640</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1939</t>
+          <t>1921</t>
         </is>
       </c>
     </row>
@@ -686,37 +686,37 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>97010</t>
+          <t>96637</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>89647</t>
+          <t>89318</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>7363</t>
+          <t>7319</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>57169</t>
+          <t>56926</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>6342</t>
+          <t>6304</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>5716</t>
+          <t>5674</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1905</t>
+          <t>1886</t>
         </is>
       </c>
     </row>
@@ -746,37 +746,37 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>97261</t>
+          <t>96855</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>90320</t>
+          <t>89958</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6942</t>
+          <t>6897</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>57496</t>
+          <t>57249</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>5403</t>
+          <t>5369</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>5089</t>
+          <t>5050</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1858</t>
+          <t>1840</t>
         </is>
       </c>
     </row>
@@ -806,37 +806,37 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>97322</t>
+          <t>96893</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>90593</t>
+          <t>90209</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>6730</t>
+          <t>6684</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>58007</t>
+          <t>57748</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>5276</t>
+          <t>5241</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>5068</t>
+          <t>5027</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1877</t>
         </is>
       </c>
     </row>
@@ -866,37 +866,37 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>97554</t>
+          <t>97105</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>89688</t>
+          <t>89298</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>7866</t>
+          <t>7807</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>58348</t>
+          <t>58069</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5272</t>
+          <t>5237</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>5248</t>
+          <t>5202</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1946</t>
         </is>
       </c>
     </row>
@@ -926,37 +926,37 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>98242</t>
+          <t>97756</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>90849</t>
+          <t>90419</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>7393</t>
+          <t>7338</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>58224</t>
+          <t>57931</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>5134</t>
+          <t>5097</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>4821</t>
+          <t>4778</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1845</t>
+          <t>1825</t>
         </is>
       </c>
     </row>
@@ -986,37 +986,37 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>98354</t>
+          <t>97843</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>91438</t>
+          <t>90982</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>6916</t>
+          <t>6861</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>58669</t>
+          <t>58362</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>4869</t>
+          <t>4830</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>4686</t>
+          <t>4640</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1769</t>
+          <t>1750</t>
         </is>
       </c>
     </row>
@@ -1046,37 +1046,37 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>98321</t>
+          <t>97783</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>92170</t>
+          <t>91683</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>6151</t>
+          <t>6100</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>59244</t>
+          <t>58928</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>4780</t>
+          <t>4744</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>4419</t>
+          <t>4375</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>1608</t>
         </is>
       </c>
     </row>
@@ -1106,37 +1106,37 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>98597</t>
+          <t>98028</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>91456</t>
+          <t>90947</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>7141</t>
+          <t>7081</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>59509</t>
+          <t>59186</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>4531</t>
+          <t>4497</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>4365</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>1523</t>
         </is>
       </c>
     </row>
@@ -1166,37 +1166,37 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>98979</t>
+          <t>98373</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>92118</t>
+          <t>91573</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>6861</t>
+          <t>6801</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>59662</t>
+          <t>59322</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>4424</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>4090</t>
+          <t>4049</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1442</t>
+          <t>1425</t>
         </is>
       </c>
     </row>
@@ -1226,37 +1226,37 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>99219</t>
+          <t>98574</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>92407</t>
+          <t>91827</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>6812</t>
+          <t>6747</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>59949</t>
+          <t>59601</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>4442</t>
+          <t>4409</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>4071</t>
+          <t>4032</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1457</t>
+          <t>1441</t>
         </is>
       </c>
     </row>
@@ -1286,37 +1286,37 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>99516</t>
+          <t>98828</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>92962</t>
+          <t>92340</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>6555</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>60162</t>
+          <t>59806</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>4698</t>
+          <t>4656</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>4249</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1564</t>
+          <t>1545</t>
         </is>
       </c>
     </row>
@@ -1346,37 +1346,37 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>100007</t>
+          <t>99277</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>91962</t>
+          <t>91312</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>8045</t>
+          <t>7965</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>60182</t>
+          <t>59812</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>4783</t>
+          <t>4739</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>4503</t>
+          <t>4453</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>1621</t>
         </is>
       </c>
     </row>
@@ -1406,37 +1406,37 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>100746</t>
+          <t>99960</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>92249</t>
+          <t>91553</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>8498</t>
+          <t>8408</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>59947</t>
+          <t>59567</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>5250</t>
+          <t>5200</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>4414</t>
+          <t>4363</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1651</t>
+          <t>1629</t>
         </is>
       </c>
     </row>
@@ -1466,37 +1466,37 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>101354</t>
+          <t>100515</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>92201</t>
+          <t>91466</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>9153</t>
+          <t>9048</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>59838</t>
+          <t>59458</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>5535</t>
+          <t>5480</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>4523</t>
+          <t>4473</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1811</t>
+          <t>1789</t>
         </is>
       </c>
     </row>
@@ -1526,37 +1526,37 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>101588</t>
+          <t>100707</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>92366</t>
+          <t>91585</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>9222</t>
+          <t>9122</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>60092</t>
+          <t>59703</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>4094</t>
+          <t>4052</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>5271</t>
+          <t>5210</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2645</t>
+          <t>2614</t>
         </is>
       </c>
     </row>
@@ -1586,37 +1586,37 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>101990</t>
+          <t>101062</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>90708</t>
+          <t>89909</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>11281</t>
+          <t>11153</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>60176</t>
+          <t>59783</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>4200</t>
+          <t>4160</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>5377</t>
+          <t>5315</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2804</t>
+          <t>2770</t>
         </is>
       </c>
     </row>
@@ -1646,37 +1646,37 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>102389</t>
+          <t>101409</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>90673</t>
+          <t>89827</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>11716</t>
+          <t>11583</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>60259</t>
+          <t>59857</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>4812</t>
+          <t>4762</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>6189</t>
+          <t>6121</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>3194</t>
+          <t>3158</t>
         </is>
       </c>
     </row>
@@ -1706,37 +1706,37 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>101978</t>
+          <t>100949</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>89821</t>
+          <t>88939</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>12156</t>
+          <t>12010</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>61151</t>
+          <t>60744</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>4793</t>
+          <t>4740</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>6057</t>
+          <t>5986</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>3481</t>
+          <t>3438</t>
         </is>
       </c>
     </row>
@@ -1766,37 +1766,37 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>102650</t>
+          <t>101562</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>90174</t>
+          <t>89239</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>12476</t>
+          <t>12323</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>60953</t>
+          <t>60551</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>5267</t>
+          <t>5206</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>6610</t>
+          <t>6527</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>3809</t>
+          <t>3758</t>
         </is>
       </c>
     </row>
@@ -1826,37 +1826,37 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>103151</t>
+          <t>102010</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>88846</t>
+          <t>87880</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>14305</t>
+          <t>14130</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>60926</t>
+          <t>60519</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>5246</t>
+          <t>5179</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>7007</t>
+          <t>6914</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>4051</t>
+          <t>3995</t>
         </is>
       </c>
     </row>
@@ -1886,37 +1886,37 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>103791</t>
+          <t>102588</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>90193</t>
+          <t>89163</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>13598</t>
+          <t>13425</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>60754</t>
+          <t>60343</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>5807</t>
+          <t>5735</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>6925</t>
+          <t>6836</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>3912</t>
+          <t>3859</t>
         </is>
       </c>
     </row>
@@ -1946,37 +1946,37 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>104336</t>
+          <t>103070</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>91268</t>
+          <t>90176</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>13068</t>
+          <t>12894</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>60672</t>
+          <t>60260</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>6257</t>
+          <t>6175</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>7429</t>
+          <t>7333</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>4153</t>
+          <t>4100</t>
         </is>
       </c>
     </row>
@@ -2006,37 +2006,37 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>104682</t>
+          <t>103345</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>92228</t>
+          <t>91066</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>12453</t>
+          <t>12279</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>60777</t>
+          <t>60371</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>6459</t>
+          <t>6376</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>7541</t>
+          <t>7446</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>4267</t>
+          <t>4209</t>
         </is>
       </c>
     </row>
@@ -2066,37 +2066,37 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>104751</t>
+          <t>103362</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>90879</t>
+          <t>89691</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>13872</t>
+          <t>13671</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>61158</t>
+          <t>60736</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>6203</t>
+          <t>6121</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>7712</t>
+          <t>7621</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>4562</t>
+          <t>4504</t>
         </is>
       </c>
     </row>
@@ -2126,37 +2126,37 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>104610</t>
+          <t>103160</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>91462</t>
+          <t>90212</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>13148</t>
+          <t>12948</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>61744</t>
+          <t>61306</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>6515</t>
+          <t>6424</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>8071</t>
+          <t>7974</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>4754</t>
+          <t>4696</t>
         </is>
       </c>
     </row>
@@ -2186,37 +2186,37 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>105624</t>
+          <t>104102</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>92930</t>
+          <t>91607</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>12694</t>
+          <t>12495</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>61177</t>
+          <t>60739</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>6870</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>7882</t>
+          <t>7786</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>4697</t>
+          <t>4635</t>
         </is>
       </c>
     </row>
@@ -2246,37 +2246,37 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>105947</t>
+          <t>104367</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>93534</t>
+          <t>92152</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>12413</t>
+          <t>12215</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>61299</t>
+          <t>60845</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>6916</t>
+          <t>6817</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>7802</t>
+          <t>7699</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>4647</t>
+          <t>4580</t>
         </is>
       </c>
     </row>
@@ -2306,37 +2306,37 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>106273</t>
+          <t>104641</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>92621</t>
+          <t>91203</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>13651</t>
+          <t>13439</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>61417</t>
+          <t>60939</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>6805</t>
+          <t>6709</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>8168</t>
+          <t>8061</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>4820</t>
+          <t>4756</t>
         </is>
       </c>
     </row>
@@ -2366,37 +2366,37 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>107170</t>
+          <t>105460</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>94159</t>
+          <t>92662</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>13011</t>
+          <t>12797</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>60958</t>
+          <t>60475</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>7398</t>
+          <t>7282</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>8256</t>
+          <t>8151</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>4833</t>
+          <t>4768</t>
         </is>
       </c>
     </row>
@@ -2426,37 +2426,37 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>107535</t>
+          <t>105771</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>94737</t>
+          <t>93191</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>12798</t>
+          <t>12581</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>61030</t>
+          <t>60530</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>7102</t>
+          <t>6991</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>7920</t>
+          <t>7809</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>4691</t>
+          <t>4621</t>
         </is>
       </c>
     </row>
@@ -2486,37 +2486,37 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>107418</t>
+          <t>105617</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>95515</t>
+          <t>93920</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>11903</t>
+          <t>11698</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>61579</t>
+          <t>61053</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>6857</t>
+          <t>6747</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>7762</t>
+          <t>7664</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>4621</t>
+          <t>4561</t>
         </is>
       </c>
     </row>
@@ -2546,37 +2546,37 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>106263</t>
+          <t>104448</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>93115</t>
+          <t>91523</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>13148</t>
+          <t>12925</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>63164</t>
+          <t>62588</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>6522</t>
+          <t>6413</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>8323</t>
+          <t>8210</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>4762</t>
+          <t>4697</t>
         </is>
       </c>
     </row>
@@ -2606,37 +2606,37 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>97279</t>
+          <t>95589</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>84051</t>
+          <t>82610</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>13228</t>
+          <t>12979</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>72573</t>
+          <t>71802</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>5642</t>
+          <t>5555</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>13668</t>
+          <t>13445</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>5673</t>
+          <t>5581</t>
         </is>
       </c>
     </row>
@@ -2666,37 +2666,37 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>98037</t>
+          <t>96267</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>83439</t>
+          <t>81954</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>14598</t>
+          <t>14313</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>72234</t>
+          <t>71476</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>6273</t>
+          <t>6175</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>12876</t>
+          <t>12683</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>5870</t>
+          <t>5781</t>
         </is>
       </c>
     </row>
@@ -2726,37 +2726,37 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>101637</t>
+          <t>99804</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>87225</t>
+          <t>85669</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>14412</t>
+          <t>14135</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>69042</t>
+          <t>68283</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>6865</t>
+          <t>6750</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>11264</t>
+          <t>11095</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>5739</t>
+          <t>5657</t>
         </is>
       </c>
     </row>
@@ -2786,37 +2786,37 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>102339</t>
+          <t>100476</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>87082</t>
+          <t>85497</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>15257</t>
+          <t>14979</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>68746</t>
+          <t>67950</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>7091</t>
+          <t>6969</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>11308</t>
+          <t>11139</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>5919</t>
+          <t>5829</t>
         </is>
       </c>
     </row>
@@ -2846,37 +2846,37 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>104216</t>
+          <t>102315</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>89384</t>
+          <t>87743</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>14832</t>
+          <t>14572</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>67270</t>
+          <t>66436</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>7644</t>
+          <t>7505</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>10126</t>
+          <t>9973</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>5505</t>
+          <t>5425</t>
         </is>
       </c>
     </row>
@@ -2906,37 +2906,37 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>106430</t>
+          <t>104483</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>92976</t>
+          <t>91265</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>13453</t>
+          <t>13218</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>65456</t>
+          <t>64606</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>7771</t>
+          <t>7639</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>9519</t>
+          <t>9390</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>5145</t>
+          <t>5077</t>
         </is>
       </c>
     </row>
@@ -2966,37 +2966,37 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>107758</t>
+          <t>105781</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>95747</t>
+          <t>93988</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>12011</t>
+          <t>11793</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>64525</t>
+          <t>63647</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>7369</t>
+          <t>7241</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>8964</t>
+          <t>8842</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>4789</t>
+          <t>4727</t>
         </is>
       </c>
     </row>
@@ -3026,37 +3026,37 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>107224</t>
+          <t>105248</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>95275</t>
+          <t>93523</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>11949</t>
+          <t>11725</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>65454</t>
+          <t>64516</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>6509</t>
+          <t>6403</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>8354</t>
+          <t>8231</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>4594</t>
+          <t>4528</t>
         </is>
       </c>
     </row>
@@ -3086,37 +3086,37 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>108349</t>
+          <t>106340</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>98269</t>
+          <t>96445</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>10080</t>
+          <t>9895</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>64719</t>
+          <t>63747</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>6569</t>
+          <t>6459</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>8087</t>
+          <t>7960</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>4265</t>
+          <t>4202</t>
         </is>
       </c>
     </row>
@@ -3146,37 +3146,37 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>108729</t>
+          <t>106708</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>99269</t>
+          <t>97435</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>9460</t>
+          <t>9273</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>64729</t>
+          <t>63719</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>6194</t>
+          <t>6089</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>7772</t>
+          <t>7653</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>4258</t>
+          <t>4197</t>
         </is>
       </c>
     </row>
@@ -3206,37 +3206,37 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>107942</t>
+          <t>105927</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>99370</t>
+          <t>97517</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>8572</t>
+          <t>8410</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>65903</t>
+          <t>64845</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>5429</t>
+          <t>5336</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>7305</t>
+          <t>7188</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>3996</t>
+          <t>3939</t>
         </is>
       </c>
     </row>
@@ -3266,37 +3266,37 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>107257</t>
+          <t>105225</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>97825</t>
+          <t>95978</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>9432</t>
+          <t>9247</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>66972</t>
+          <t>65891</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>5013</t>
+          <t>4930</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>7130</t>
+          <t>7016</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>3871</t>
+          <t>3818</t>
         </is>
       </c>
     </row>
@@ -3326,37 +3326,37 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>107557</t>
+          <t>105505</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>98910</t>
+          <t>97038</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>8647</t>
+          <t>8468</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>67051</t>
+          <t>65940</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>5133</t>
+          <t>5043</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>6571</t>
+          <t>6476</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>3672</t>
+          <t>3630</t>
         </is>
       </c>
     </row>
@@ -3386,37 +3386,37 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>108154</t>
+          <t>106087</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>99838</t>
+          <t>97938</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>8316</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>66829</t>
+          <t>65694</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>5325</t>
+          <t>5229</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>6509</t>
+          <t>6410</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>3504</t>
+          <t>3458</t>
         </is>
       </c>
     </row>
@@ -3446,37 +3446,37 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>109066</t>
+          <t>106988</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>100985</t>
+          <t>99062</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>8082</t>
+          <t>7926</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>66286</t>
+          <t>65127</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>5435</t>
+          <t>5346</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>6419</t>
+          <t>6326</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>3454</t>
+          <t>3411</t>
         </is>
       </c>
     </row>
@@ -3595,32 +3595,32 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>43472</t>
+          <t>43626</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14221</t>
+          <t>14155</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>23804</t>
+          <t>23471</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>48316</t>
+          <t>48376</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>45210</t>
+          <t>45105</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>22050</t>
+          <t>21925</t>
         </is>
       </c>
     </row>
@@ -3650,32 +3650,32 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>43323</t>
+          <t>43498</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14216</t>
+          <t>14137</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>23804</t>
+          <t>23453</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>48481</t>
+          <t>48513</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>45434</t>
+          <t>45336</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>22245</t>
+          <t>22124</t>
         </is>
       </c>
     </row>
@@ -3705,32 +3705,32 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>43173</t>
+          <t>43367</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14136</t>
+          <t>14045</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>23873</t>
+          <t>23513</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>48642</t>
+          <t>48644</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>45658</t>
+          <t>45568</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>22450</t>
+          <t>22333</t>
         </is>
       </c>
     </row>
@@ -3760,32 +3760,32 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>43030</t>
+          <t>43234</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>14079</t>
+          <t>13978</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>23914</t>
+          <t>23556</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>48797</t>
+          <t>48766</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>45880</t>
+          <t>45796</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>22660</t>
+          <t>22546</t>
         </is>
       </c>
     </row>
@@ -3815,32 +3815,32 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>42887</t>
+          <t>43101</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>14041</t>
+          <t>13930</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>23936</t>
+          <t>23577</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>48953</t>
+          <t>48886</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>46102</t>
+          <t>46022</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>22870</t>
+          <t>22759</t>
         </is>
       </c>
     </row>
@@ -3870,32 +3870,32 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>42751</t>
+          <t>42971</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>13988</t>
+          <t>13866</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>23975</t>
+          <t>23615</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>49107</t>
+          <t>49001</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>46321</t>
+          <t>46240</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>23075</t>
+          <t>22965</t>
         </is>
       </c>
     </row>
@@ -3925,32 +3925,32 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>42623</t>
+          <t>42844</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>13948</t>
+          <t>13818</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>23991</t>
+          <t>23636</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>49252</t>
+          <t>49109</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>46543</t>
+          <t>46461</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>23289</t>
+          <t>23181</t>
         </is>
       </c>
     </row>
@@ -3980,32 +3980,32 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>42509</t>
+          <t>42725</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>13912</t>
+          <t>13779</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>23993</t>
+          <t>23647</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>49386</t>
+          <t>49206</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>46765</t>
+          <t>46677</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>23509</t>
+          <t>23402</t>
         </is>
       </c>
     </row>
@@ -4035,32 +4035,32 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>42395</t>
+          <t>42606</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13936</t>
+          <t>13798</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>23935</t>
+          <t>23600</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>49520</t>
+          <t>49301</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>46987</t>
+          <t>46892</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>23729</t>
+          <t>23622</t>
         </is>
       </c>
     </row>
@@ -4090,32 +4090,32 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>42288</t>
+          <t>42489</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>13758</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>23941</t>
+          <t>23612</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>49653</t>
+          <t>49391</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>47205</t>
+          <t>47100</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>23943</t>
+          <t>23835</t>
         </is>
       </c>
     </row>
@@ -4145,32 +4145,32 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>42189</t>
+          <t>42383</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>13965</t>
+          <t>13821</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>23835</t>
+          <t>23512</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>49773</t>
+          <t>49472</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>47428</t>
+          <t>47312</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>24166</t>
+          <t>24058</t>
         </is>
       </c>
     </row>
@@ -4200,32 +4200,32 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>42104</t>
+          <t>42293</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>13972</t>
+          <t>13825</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>23780</t>
+          <t>23463</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>49879</t>
+          <t>49539</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>47653</t>
+          <t>47521</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>24395</t>
+          <t>24285</t>
         </is>
       </c>
     </row>
@@ -4255,32 +4255,32 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>42020</t>
+          <t>42203</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>13882</t>
+          <t>13734</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>23822</t>
+          <t>23510</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>49984</t>
+          <t>49605</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>47878</t>
+          <t>47730</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>24623</t>
+          <t>24512</t>
         </is>
       </c>
     </row>
@@ -4310,32 +4310,32 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>41940</t>
+          <t>42114</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>13856</t>
+          <t>13706</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>23804</t>
+          <t>23492</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>50090</t>
+          <t>49667</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>48099</t>
+          <t>47931</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>24845</t>
+          <t>24731</t>
         </is>
       </c>
     </row>
@@ -4365,32 +4365,32 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>41866</t>
+          <t>42026</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13851</t>
+          <t>13705</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>23749</t>
+          <t>23441</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>50186</t>
+          <t>49722</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>48327</t>
+          <t>48143</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>25079</t>
+          <t>24962</t>
         </is>
       </c>
     </row>
@@ -4420,32 +4420,32 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>41802</t>
+          <t>41940</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13716</t>
+          <t>13585</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>23814</t>
+          <t>23500</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>50271</t>
+          <t>49766</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>48561</t>
+          <t>48359</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>25319</t>
+          <t>25200</t>
         </is>
       </c>
     </row>
@@ -4475,32 +4475,32 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>41738</t>
+          <t>41853</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13677</t>
+          <t>13560</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>23780</t>
+          <t>23465</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>50356</t>
+          <t>49809</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>48794</t>
+          <t>48575</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>25558</t>
+          <t>25436</t>
         </is>
       </c>
     </row>
@@ -4530,32 +4530,32 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>41678</t>
+          <t>41768</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>13638</t>
+          <t>13528</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>23751</t>
+          <t>23436</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>50441</t>
+          <t>49850</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>49024</t>
+          <t>48785</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>25794</t>
+          <t>25667</t>
         </is>
       </c>
     </row>
@@ -4585,32 +4585,32 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>41618</t>
+          <t>41682</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>13545</t>
+          <t>13449</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>23771</t>
+          <t>23446</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>50513</t>
+          <t>49881</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>49260</t>
+          <t>49007</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>26039</t>
+          <t>25909</t>
         </is>
       </c>
     </row>
@@ -4640,32 +4640,32 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>41562</t>
+          <t>41597</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13489</t>
+          <t>13411</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>23751</t>
+          <t>23406</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>50574</t>
+          <t>49902</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>49499</t>
+          <t>49236</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>26290</t>
+          <t>26158</t>
         </is>
       </c>
     </row>
@@ -4695,32 +4695,32 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>41506</t>
+          <t>41511</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>13380</t>
+          <t>13320</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>23784</t>
+          <t>23418</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>50634</t>
+          <t>49922</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>49738</t>
+          <t>49464</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>26541</t>
+          <t>26406</t>
         </is>
       </c>
     </row>
@@ -4750,32 +4750,32 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>41455</t>
+          <t>41427</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>13225</t>
+          <t>13178</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>23868</t>
+          <t>23483</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>50695</t>
+          <t>49940</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>49972</t>
+          <t>49684</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>26785</t>
+          <t>26645</t>
         </is>
       </c>
     </row>
@@ -4805,32 +4805,32 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>41408</t>
+          <t>41350</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>13107</t>
+          <t>13077</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>23906</t>
+          <t>23496</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>50744</t>
+          <t>49944</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>50211</t>
+          <t>49916</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>27040</t>
+          <t>26897</t>
         </is>
       </c>
     </row>
@@ -4860,32 +4860,32 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>41370</t>
+          <t>41283</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>12963</t>
+          <t>12951</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>23967</t>
+          <t>23526</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>50780</t>
+          <t>49933</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>50450</t>
+          <t>50152</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>27299</t>
+          <t>27154</t>
         </is>
       </c>
     </row>
@@ -4915,32 +4915,32 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>41332</t>
+          <t>41215</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12861</t>
+          <t>12864</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>23986</t>
+          <t>23516</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>50816</t>
+          <t>49922</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>50689</t>
+          <t>50387</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>27557</t>
+          <t>27410</t>
         </is>
       </c>
     </row>
@@ -4970,32 +4970,32 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>41298</t>
+          <t>41149</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>12775</t>
+          <t>12790</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>23993</t>
+          <t>23495</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>50854</t>
+          <t>49909</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>50923</t>
+          <t>50614</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>27808</t>
+          <t>27657</t>
         </is>
       </c>
     </row>
@@ -5025,32 +5025,32 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>41260</t>
+          <t>41080</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>12642</t>
+          <t>12668</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>24040</t>
+          <t>23520</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>50885</t>
+          <t>49888</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>51163</t>
+          <t>50850</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>28071</t>
+          <t>27915</t>
         </is>
       </c>
     </row>
@@ -5080,32 +5080,32 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>41222</t>
+          <t>41012</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12565</t>
+          <t>12598</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>24028</t>
+          <t>23491</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>50910</t>
+          <t>49859</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>51404</t>
+          <t>51089</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>28339</t>
+          <t>28176</t>
         </is>
       </c>
     </row>
@@ -5135,32 +5135,32 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>41183</t>
+          <t>40942</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12488</t>
+          <t>12528</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>24017</t>
+          <t>23463</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>50935</t>
+          <t>49828</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>51644</t>
+          <t>51326</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>28606</t>
+          <t>28436</t>
         </is>
       </c>
     </row>
@@ -5190,32 +5190,32 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>41148</t>
+          <t>40874</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12463</t>
+          <t>12508</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>23958</t>
+          <t>23387</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>50961</t>
+          <t>49797</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>51879</t>
+          <t>51555</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>28867</t>
+          <t>28687</t>
         </is>
       </c>
     </row>
@@ -5245,32 +5245,32 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>41113</t>
+          <t>40798</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>12497</t>
+          <t>12545</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>23827</t>
+          <t>23255</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>50983</t>
+          <t>49765</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>52120</t>
+          <t>51793</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>29138</t>
+          <t>28944</t>
         </is>
       </c>
     </row>
@@ -5300,32 +5300,32 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>41080</t>
+          <t>40716</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>12441</t>
+          <t>12493</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>23779</t>
+          <t>23216</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>51003</t>
+          <t>49733</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>52360</t>
+          <t>52031</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>29413</t>
+          <t>29197</t>
         </is>
       </c>
     </row>
@@ -5355,32 +5355,32 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>41048</t>
+          <t>40634</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>12414</t>
+          <t>12466</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>23701</t>
+          <t>23151</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>51022</t>
+          <t>49700</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>52600</t>
+          <t>52269</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>29689</t>
+          <t>29449</t>
         </is>
       </c>
     </row>
@@ -5410,32 +5410,32 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>41017</t>
+          <t>40552</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>12430</t>
+          <t>12484</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>23584</t>
+          <t>23044</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>51043</t>
+          <t>49666</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>52837</t>
+          <t>52501</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>29959</t>
+          <t>29696</t>
         </is>
       </c>
     </row>
@@ -5465,32 +5465,32 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>40992</t>
+          <t>40475</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>12435</t>
+          <t>12495</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>23462</t>
+          <t>22937</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>51058</t>
+          <t>49635</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>53076</t>
+          <t>52736</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>30239</t>
+          <t>29941</t>
         </is>
       </c>
     </row>
@@ -5520,32 +5520,32 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>40974</t>
+          <t>40404</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>12557</t>
+          <t>12621</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>23211</t>
+          <t>22711</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>51071</t>
+          <t>49606</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>53317</t>
+          <t>52970</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>30523</t>
+          <t>30177</t>
         </is>
       </c>
     </row>
@@ -5575,32 +5575,32 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>40956</t>
+          <t>40332</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>12450</t>
+          <t>12525</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>23187</t>
+          <t>22707</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>51083</t>
+          <t>49576</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>53557</t>
+          <t>53204</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>30807</t>
+          <t>30414</t>
         </is>
       </c>
     </row>
@@ -5630,32 +5630,32 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>40940</t>
+          <t>40262</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>12252</t>
+          <t>12330</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>23262</t>
+          <t>22804</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>51098</t>
+          <t>49547</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>53791</t>
+          <t>53428</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>31083</t>
+          <t>30642</t>
         </is>
       </c>
     </row>
@@ -5685,32 +5685,32 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>40922</t>
+          <t>40185</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>12201</t>
+          <t>12281</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>23176</t>
+          <t>22746</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>51107</t>
+          <t>49514</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>54031</t>
+          <t>53662</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>31371</t>
+          <t>30885</t>
         </is>
       </c>
     </row>
@@ -5740,32 +5740,32 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>40905</t>
+          <t>40102</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>12162</t>
+          <t>12238</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>23073</t>
+          <t>22678</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>51114</t>
+          <t>49479</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>54270</t>
+          <t>53896</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>31664</t>
+          <t>31136</t>
         </is>
       </c>
     </row>
@@ -5795,32 +5795,32 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>40888</t>
+          <t>40019</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>12147</t>
+          <t>12217</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>22945</t>
+          <t>22587</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>51121</t>
+          <t>49444</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>54509</t>
+          <t>54130</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>31955</t>
+          <t>31387</t>
         </is>
       </c>
     </row>
@@ -5850,32 +5850,32 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>40872</t>
+          <t>39937</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>12130</t>
+          <t>12191</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>22827</t>
+          <t>22503</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>51129</t>
+          <t>49408</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>54743</t>
+          <t>54355</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>32239</t>
+          <t>31629</t>
         </is>
       </c>
     </row>
@@ -5905,32 +5905,32 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>40854</t>
+          <t>39844</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>12142</t>
+          <t>12198</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>22671</t>
+          <t>22378</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>51131</t>
+          <t>49366</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>54980</t>
+          <t>54588</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>32534</t>
+          <t>31897</t>
         </is>
       </c>
     </row>
@@ -5960,32 +5960,32 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>40836</t>
+          <t>39740</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>12150</t>
+          <t>12202</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>22517</t>
+          <t>22252</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>51128</t>
+          <t>49317</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>55217</t>
+          <t>54819</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>32833</t>
+          <t>32182</t>
         </is>
       </c>
     </row>
@@ -6015,32 +6015,32 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>40817</t>
+          <t>39636</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>12140</t>
+          <t>12183</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>22381</t>
+          <t>22146</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>51125</t>
+          <t>49268</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>55452</t>
+          <t>55051</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>33131</t>
+          <t>32468</t>
         </is>
       </c>
     </row>
@@ -6070,32 +6070,32 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>40801</t>
+          <t>39535</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>12100</t>
+          <t>12133</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>22280</t>
+          <t>22076</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>51124</t>
+          <t>49220</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>55682</t>
+          <t>55273</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>33420</t>
+          <t>32743</t>
         </is>
       </c>
     </row>
@@ -6125,32 +6125,32 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>40785</t>
+          <t>39430</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>12034</t>
+          <t>12065</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>22201</t>
+          <t>22017</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>51113</t>
+          <t>49169</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>55914</t>
+          <t>55496</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>33720</t>
+          <t>33035</t>
         </is>
       </c>
     </row>
@@ -6180,32 +6180,32 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>40771</t>
+          <t>39326</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>11957</t>
+          <t>11981</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>22136</t>
+          <t>21971</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>51095</t>
+          <t>49117</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>56143</t>
+          <t>55712</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>34021</t>
+          <t>33334</t>
         </is>
       </c>
     </row>
